--- a/common-npoi/src/main/resources/xlsx/each_temp.xlsx
+++ b/common-npoi/src/main/resources/xlsx/each_temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gitcheck\github\common-modules\common-npoi\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCFF30C-CF26-4E59-B4FB-20FF61DCEFBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66DC405-B494-4E2B-8512-943323C3D3FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>生成日期${printDate}</t>
   </si>
@@ -36,6 +36,14 @@
   </si>
   <si>
     <t>#each ${model}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#if ${model}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#end</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -494,16 +502,26 @@
       <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="6" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
